--- a/bakeoff3times.xlsx
+++ b/bakeoff3times.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coleprice/class/COSC559/bakeoff2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coleprice/class/COSC559/bakeoff3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE942A02-1F7A-9B45-A089-75B5B4808465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C82B7B-48A5-4E4D-9839-760312DA8063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="880" windowWidth="34320" windowHeight="21340" xr2:uid="{D931FA68-0F56-AC40-844B-131CF1896DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,22 +47,22 @@
     <t>Simone</t>
   </si>
   <si>
-    <t>Prototype 1 (sec per dest + penalty)</t>
-  </si>
-  <si>
-    <t>Prototype 2 (sec per dest + penalty)</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>2nd Round Prototype (sec per dest + penalty)</t>
-  </si>
-  <si>
-    <t>Scaffold Code (sec per dest + penalty)</t>
-  </si>
-  <si>
-    <t>Final Prototype (sec per dest + penalty)</t>
+    <t>Prototype 1 (WPM w/ penalty)</t>
+  </si>
+  <si>
+    <t>Prototype 2 (WPM w/ penalty)</t>
+  </si>
+  <si>
+    <t>2nd Round Prototype (WPM w/ penalty)</t>
+  </si>
+  <si>
+    <t>Scaffold Code (WPM w/ penalty)</t>
+  </si>
+  <si>
+    <t>Final Prototype (WPM w/ penalty)</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB38B051-FFE5-1C4C-A5DD-3925F66B2069}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,10 +469,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.373083000000001</v>
+        <v>4.95</v>
       </c>
       <c r="C2">
-        <v>16.638500000000001</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>15.877418</v>
+        <v>5.61</v>
       </c>
       <c r="C3">
-        <v>15.518750000000001</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>28.503668000000001</v>
+        <v>5.14</v>
       </c>
       <c r="C4">
-        <v>17.571916999999999</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>23.71584</v>
+        <v>4.82</v>
       </c>
       <c r="C5">
-        <v>16.249834</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -524,10 +524,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>27.324083000000002</v>
+        <v>4.83</v>
       </c>
       <c r="C6">
-        <v>16.127419</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -535,23 +535,23 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>27.597000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="C7">
-        <v>18.099916</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <f>AVERAGE(B2:B7)</f>
-        <v>23.898515333333336</v>
+        <f>ROUND(AVERAGE(B2:B7), 2)</f>
+        <v>5.12</v>
       </c>
       <c r="C9">
-        <f>AVERAGE(C2:C7)</f>
-        <v>16.701056000000005</v>
+        <f>ROUND(AVERAGE(C2:C7), 2)</f>
+        <v>6.43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>14.80175</v>
+        <v>6.93</v>
       </c>
       <c r="C13">
-        <v>25.915749999999999</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>14.330833</v>
+        <v>7.15</v>
       </c>
       <c r="C14">
-        <v>26.244751000000001</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>14.7109995</v>
+        <v>7.06</v>
       </c>
       <c r="C15">
-        <v>25.982140000000001</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>14.120167</v>
+        <v>7.19</v>
       </c>
       <c r="C16">
-        <v>26.138290000000001</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -611,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>14.74675</v>
+        <v>6.97</v>
       </c>
       <c r="C17">
-        <v>25.876909999999999</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -622,23 +622,23 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>16.233750000000001</v>
+        <v>7.19</v>
       </c>
       <c r="C18">
-        <v>26.301469999999998</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <f>AVERAGE(B13:B18)</f>
-        <v>14.824041583333333</v>
+        <f>ROUND(AVERAGE(B13:B18), 2)</f>
+        <v>7.08</v>
       </c>
       <c r="C20">
-        <f>AVERAGE(C13:C18)</f>
-        <v>26.07655183333333</v>
+        <f>ROUND(AVERAGE(C13:C19), 2)</f>
+        <v>3.21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>13.420667</v>
+        <v>8.24</v>
       </c>
       <c r="C24">
-        <v>25.915749999999999</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>14.581</v>
+        <v>8.57</v>
       </c>
       <c r="C25">
-        <v>26.244751000000001</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>12.077166999999999</v>
+        <v>7.75</v>
       </c>
       <c r="C26">
-        <v>25.982140000000001</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -687,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>14.770416000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C27">
-        <v>26.138290000000001</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,10 +698,10 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>13.073916000000001</v>
+        <v>7.94</v>
       </c>
       <c r="C28">
-        <v>25.876909999999999</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,26 +709,27 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>11.309334</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="C29">
-        <v>26.301469999999998</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <f>AVERAGE(B24:B29)</f>
-        <v>13.205416666666665</v>
+        <f>ROUND(AVERAGE(B24:B29), 2)</f>
+        <v>8.14</v>
       </c>
       <c r="C31">
-        <f>AVERAGE(C24:C29)</f>
-        <v>26.07655183333333</v>
+        <f>ROUND(AVERAGE(C24:C30), 2)</f>
+        <v>3.21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>